--- a/pas.xlsx
+++ b/pas.xlsx
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>true</t>
+    <t>qqqwqe</t>
+  </si>
+  <si>
+    <t>рпа</t>
   </si>
 </sst>
 </file>
@@ -380,26 +383,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>100</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>20546</v>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>34566</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
